--- a/data/trans_bre/P24_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_6_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,95</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>17,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>15,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,48</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>17,49</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>99,97%</t>
+          <t>17,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>69,16%</t>
+          <t>101,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>89,58%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>70,9%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>71,92%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>59,62%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>53,88%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,92; 20,54</t>
+          <t>11,9; 20,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 23,14</t>
+          <t>13,01; 22,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 21,89</t>
+          <t>12,2; 21,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 20,12</t>
+          <t>10,6; 20,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,43; 22,55</t>
+          <t>10,02; 21,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,07; 133,4</t>
+          <t>12,62; 22,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,91; 150,43</t>
+          <t>11,85; 22,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,48; 122,45</t>
+          <t>58,94; 135,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,71; 102,78</t>
+          <t>66,87; 150,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,65; 85,1</t>
+          <t>52,25; 125,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41,86; 104,27</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>37,71; 109,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>38,27; 83,54</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>33,72; 76,09</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,47</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,29</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>18,1</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>13,96</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>71,53%</t>
+          <t>13,12</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,01%</t>
+          <t>74,58%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>42,03%</t>
+          <t>49,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>64,59%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>42,07%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>39,37%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 20,09</t>
+          <t>9,71; 20,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 18,57</t>
+          <t>6,25; 18,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 17,06</t>
+          <t>5,96; 17,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 19,68</t>
+          <t>7,61; 20,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 22,61</t>
+          <t>11,36; 24,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,0; 142,78</t>
+          <t>4,58; 23,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,02; 128,65</t>
+          <t>3,73; 21,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,45; 86,87</t>
+          <t>50,7; 149,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,79; 87,7</t>
+          <t>28,26; 130,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 82,38</t>
+          <t>21,68; 86,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>25,29; 90,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36,71; 102,42</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11,23; 80,46</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,01; 76,46</t>
         </is>
       </c>
     </row>
@@ -876,12 +988,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>18,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -891,35 +1003,55 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-9,39</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>67,7%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>133,16%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>129,09%</t>
+          <t>67,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>127,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>122,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-22,76%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 21,87</t>
+          <t>2,29; 22,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 30,74</t>
+          <t>7,69; 29,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 31,62</t>
+          <t>12,56; 31,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 14,47</t>
+          <t>-9,8; 13,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-26,65; 4,42</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>11,07; 159,25</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,22; 293,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,37; 241,33</t>
+          <t>8,23; 164,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 51,79</t>
+          <t>36,2; 286,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>52,1; 250,08</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-24,11; 49,25</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-50,11; 15,21</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,14</t>
+          <t>15,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,21</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>13,94</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>16,63</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>88,47%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>16,28</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>88,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>75,82%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>53,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51,27%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>54,98%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>50,43%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 18,79</t>
+          <t>12,58; 18,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 19,47</t>
+          <t>12,87; 19,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 18,56</t>
+          <t>12,22; 19,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 16,9</t>
+          <t>9,55; 17,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 21,02</t>
+          <t>9,69; 18,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,62; 118,32</t>
+          <t>11,93; 21,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>63,42; 128,47</t>
+          <t>11,29; 20,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,23; 97,29</t>
+          <t>66,21; 121,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,27; 74,45</t>
+          <t>65,29; 128,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,28; 75,0</t>
+          <t>53,01; 99,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>35,1; 75,39</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>31,63; 75,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>35,78; 74,67</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>32,66; 68,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P24_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_6_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>16,34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>18,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>17,62</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,63</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>16,46</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,49</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,21</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>92,72%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>101,05%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>89,58%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>70,9%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>71,92%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>59,62%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>53,88%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>16.33754352049586</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>18.53174649135409</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>17.56106978041236</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>15.1379959845402</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>16.53888827873444</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>17.48609557561164</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>17.31624571256087</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9271874102514324</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.030833758780581</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.885214154045485</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.6832064787226535</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.7209755621450412</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.5962406908293013</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.5430023692996141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>11,9; 20,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>13,01; 22,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12,2; 21,88</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10,6; 20,16</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10,02; 21,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>12,62; 22,31</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>11,85; 22,1</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>58,94; 135,64</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>66,87; 150,27</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>52,25; 125,14</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>41,86; 104,27</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>37,71; 109,03</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>38,27; 83,54</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>33,72; 76,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>11.90147726791192</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>13.24727423214238</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>12.04022250242618</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9.803374387026825</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>10.20763213950984</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>12.61703108215032</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>12.03749470176091</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.5894316241349515</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.6630231539269357</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.5089349582154175</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.4023581015743894</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.3868648747813425</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.3827056118864131</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.3390052595028897</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.71686522439097</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.23564083524526</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.96349319505309</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19.71098101438787</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>22.17407801357924</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>22.30757635424528</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>22.23525104184627</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.356382026647301</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.545472106936155</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.24655468370172</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.010599022236348</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.105024377196448</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.8353790819908936</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.7679024035861135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,24</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>14,42</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>18,1</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>13,96</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>13,12</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>89,71%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>74,58%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>49,96%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>55,87%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>64,59%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>42,07%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>39,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 20,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 18,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 17,23</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 20,29</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>11,36; 24,53</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,58; 23,54</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 21,86</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>50,7; 149,65</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>28,26; 130,44</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>21,68; 86,18</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>25,29; 90,1</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>36,71; 102,42</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>11,23; 80,46</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>9,01; 76,46</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>14.96753389398794</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.61878754160772</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.20869200095099</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>14.81059039357878</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>17.95223062943857</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>13.95965982274386</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>13.1334555147428</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.8970764010446989</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.7043364239380349</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4896390008044195</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.5819680667963585</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.6452928775743723</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.4206620175842807</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.3929745511453451</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>12,79</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>18,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>21,82</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,39</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>67,69%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>127,67%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>122,87%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,86%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-22,76%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>9.707224705475831</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.206806203658302</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.366253485179961</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>8.214034866631133</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>11.45065840232919</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>4.575535240919009</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>3.698712396579258</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.5070199665295566</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.2272541794069521</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.194917538474556</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.2785623501789924</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.371887392322529</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.1122640141715334</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.09582270248786821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 22,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,69; 29,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>12,56; 31,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; 13,79</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-26,65; 4,42</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>8,23; 164,38</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>36,2; 286,76</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>52,1; 250,08</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-24,11; 49,25</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-50,11; 15,21</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.16683446049219</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.77374297328465</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.92624741238366</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.71503788277308</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>24.30463578333141</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.5370247277333</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>22.02187305280678</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.496502883690936</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.256129643406991</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.853688940282785</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.9388930682780326</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.018241973894162</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.8046156216480068</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.7685348474671416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>15,4</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16,36</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,65</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,44</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,94</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16,63</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>16,28</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>88,49%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>93,57%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>75,82%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>53,52%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>51,27%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>54,98%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>50,43%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>12.79478448259366</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>18.92913521589392</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>21.89724669703116</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.015986050401331</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-8.801925193411497</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.6769039315986053</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.268946147496449</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.267250157428114</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.08909234048202343</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.2155250475922105</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>12,58; 18,83</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>12,87; 19,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>12,22; 19,02</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>9,55; 17,13</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>9,69; 18,32</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>11,93; 21,05</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>11,29; 20,51</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>66,21; 121,39</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>65,29; 128,49</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>53,01; 99,94</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>35,1; 75,39</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>31,63; 75,85</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>35,78; 74,67</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>32,66; 68,55</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.288081212435003</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.966853220051952</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>12.17938778644799</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.665945147633282</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-26.49376929956313</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>0.08229852428437309</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.2519269376252412</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.5346950238652031</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.218516477637001</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.5056240017831191</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.95984046955376</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>28.87541398283035</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>31.18310319265417</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.5298562618927</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>5.203207679916068</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.643817721207028</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.693465504688284</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.522754275536265</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.5367922431614012</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.1572542851388005</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>15.39902577386504</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>16.32137149796626</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>15.59049405039101</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>13.46518995088103</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>13.98841887559691</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>16.63234834164775</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>16.35793909696746</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8849279553436245</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.9283996535626966</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.7512791606425393</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.5404625305892301</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.5166804183110775</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.549782068173671</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.5070241152123693</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>12.57632831643317</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>12.76120000541938</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>11.72530020195319</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>9.757431073588331</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>9.74899093336191</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>11.93299781718668</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>11.34120716957792</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.6620608516515406</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.6307015585450984</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5108509547613099</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.3536540625433127</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.3216821808818485</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.3578187955285494</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.3299252273349416</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>18.83242632697235</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>20.05071498684244</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.84021689994276</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.16529015174181</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>18.43136846274803</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>21.05054945601271</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>20.79702844595558</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.213884296706354</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.277672259263796</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.003651582148603</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.7632069955689652</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.7662234399758928</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.7466882834936239</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.6908683691691702</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
